--- a/src/Input_Files/religions/iberia_religions.xlsx
+++ b/src/Input_Files/religions/iberia_religions.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="religions" sheetId="1" r:id="rId1"/>
+    <sheet name="faiths" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -47,19 +47,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,12 +81,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +392,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,18 +402,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
